--- a/Nhom21.xlsx
+++ b/Nhom21.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonn\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\HK6\CNMPNC\LT\AstraTrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF234F69-5A3B-4387-8D2D-C1A4EECBF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38660E03-DE74-47C0-848C-84C10DB57C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="7" r:id="rId1"/>
     <sheet name="Team" sheetId="4" r:id="rId2"/>
     <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint backlog" sheetId="6" r:id="rId4"/>
+    <sheet name="Product backlog update" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -201,13 +202,43 @@
   </si>
   <si>
     <t>Thông báo</t>
+  </si>
+  <si>
+    <t>Actor: là User</t>
+  </si>
+  <si>
+    <t>Quản lý tin rao vặt (sửa/xóa)</t>
+  </si>
+  <si>
+    <t>Tích hợp chia sẽ lên mạng xã hội</t>
+  </si>
+  <si>
+    <t>Quản lý dang mục sản phẩm/dịch vụ</t>
+  </si>
+  <si>
+    <t>Chat trực tiếp người mua bà người bán</t>
+  </si>
+  <si>
+    <t>Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Actor: là Admin (Quản trị viên)</t>
+  </si>
+  <si>
+    <t>Quản cáo/banner</t>
+  </si>
+  <si>
+    <t>Dashboard quản trị( thống kê)</t>
+  </si>
+  <si>
+    <t>AstraTrade PROJECT - PRODUCT BACKLOG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -264,8 +295,43 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +368,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -412,6 +490,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -420,7 +569,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -443,18 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -466,6 +603,93 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,258 +1121,258 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1160,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1174,14 +1398,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1242,7 +1466,7 @@
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1299,7 +1523,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1558,7 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C4">
@@ -1342,23 +1566,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="22">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="22">
         <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C6">
@@ -1366,11 +1590,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
-        <f t="shared" ref="A6:A26" si="0">A6+1</f>
+      <c r="A7" s="22">
+        <f t="shared" ref="A7:A19" si="0">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8">
@@ -1379,11 +1603,11 @@
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="8">
@@ -1391,11 +1615,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="8">
@@ -1403,11 +1627,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="8">
@@ -1415,11 +1639,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="8">
@@ -1427,11 +1651,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="8">
@@ -1439,23 +1663,23 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="8">
@@ -1463,11 +1687,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="8">
@@ -1475,11 +1699,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="8">
@@ -1487,11 +1711,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="8">
@@ -1499,11 +1723,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="8">
@@ -1511,7 +1735,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1523,14 +1747,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="A20" s="22">
         <f>A19+1</f>
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>8</v>
       </c>
     </row>
@@ -1566,18 +1790,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1591,10 +1815,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -1644,18 +1868,18 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -1774,16 +1998,16 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -1800,4 +2024,305 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017A9A0E-809C-429A-93B0-EC826A08E732}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="39"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
+        <v>1</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
+        <v>3</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
+        <v>5</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
+        <v>6</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
+        <v>7</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
+        <v>8</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
+        <v>9</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
+        <v>10</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
+        <v>11</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
+        <v>12</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
+        <v>13</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <f>A20+1</f>
+        <v>14</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <f t="shared" ref="A22:A24" si="0">A21+1</f>
+        <v>15</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="50"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>